--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125012a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125012a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total (1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +582,27 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.8736896429530611</v>
+      </c>
+      <c r="D5">
+        <v>1.017081000742329</v>
+      </c>
+      <c r="E5">
+        <v>1.353253784313686</v>
+      </c>
+      <c r="F5">
+        <v>1.392500686262983</v>
+      </c>
+      <c r="G5">
+        <v>4.08165170349154</v>
+      </c>
+      <c r="H5">
+        <v>1.493497239269735</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -597,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8736896429530611</v>
+        <v>2.048453931525638</v>
       </c>
       <c r="D6">
-        <v>1.017081000742329</v>
+        <v>4.565944714975239</v>
       </c>
       <c r="E6">
-        <v>1.353253784313686</v>
+        <v>4.951753121332573</v>
       </c>
       <c r="F6">
-        <v>1.392500686262983</v>
+        <v>3.508919552322974</v>
       </c>
       <c r="G6">
-        <v>4.08165170349154</v>
+        <v>12.4159449988592</v>
       </c>
       <c r="H6">
-        <v>1.493497239269735</v>
+        <v>4.239987390964084</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,28 +638,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.048453931525638</v>
+        <v>2.142528253295825</v>
       </c>
       <c r="D7">
-        <v>4.565944714975239</v>
+        <v>2.435721752740435</v>
       </c>
       <c r="E7">
-        <v>4.951753121332573</v>
+        <v>5.715057741767236</v>
       </c>
       <c r="F7">
-        <v>3.508919552322974</v>
+        <v>1.958577158378064</v>
       </c>
       <c r="G7">
-        <v>12.4159449988592</v>
+        <v>10.58938975162721</v>
       </c>
       <c r="H7">
-        <v>4.239987390964084</v>
+        <v>2.374740064571998</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.950333662275999</v>
+      </c>
+      <c r="D8">
+        <v>5.671881910401515</v>
+      </c>
+      <c r="E8">
+        <v>8.137488882887714</v>
+      </c>
+      <c r="F8">
+        <v>4.215530522290782</v>
+      </c>
+      <c r="G8">
+        <v>20.60062664854404</v>
+      </c>
+      <c r="H8">
+        <v>4.545522735157391</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -654,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.142528253295825</v>
+        <v>5.312803985786086</v>
       </c>
       <c r="D9">
-        <v>2.435721752740435</v>
+        <v>5.898862083101872</v>
       </c>
       <c r="E9">
-        <v>5.715057741767236</v>
+        <v>7.28803165371535</v>
       </c>
       <c r="F9">
-        <v>1.958577158378064</v>
+        <v>3.341528513351567</v>
       </c>
       <c r="G9">
-        <v>10.58938975162721</v>
+        <v>29.30640321640082</v>
       </c>
       <c r="H9">
-        <v>2.374740064571998</v>
+        <v>3.879854132274806</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -680,22 +716,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.950333662275999</v>
+        <v>6.37502707439102</v>
       </c>
       <c r="D10">
-        <v>5.671881910401515</v>
+        <v>6.094449795060355</v>
       </c>
       <c r="E10">
-        <v>8.137488882887714</v>
+        <v>12.61572475311184</v>
       </c>
       <c r="F10">
-        <v>4.215530522290782</v>
+        <v>3.84796288391351</v>
       </c>
       <c r="G10">
-        <v>20.60062664854404</v>
+        <v>34.97628909591887</v>
       </c>
       <c r="H10">
-        <v>4.545522735157391</v>
+        <v>3.505132432649553</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -706,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.312803985786086</v>
+        <v>8.582331540605672</v>
       </c>
       <c r="D11">
-        <v>5.898862083101872</v>
+        <v>7.177299732538467</v>
       </c>
       <c r="E11">
-        <v>7.28803165371535</v>
+        <v>15.74793377597863</v>
       </c>
       <c r="F11">
-        <v>3.341528513351567</v>
+        <v>5.749823506835738</v>
       </c>
       <c r="G11">
-        <v>29.30640321640082</v>
+        <v>30.9035136846235</v>
       </c>
       <c r="H11">
-        <v>3.879854132274806</v>
+        <v>7.442274693571147</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -732,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.37502707439102</v>
+        <v>3.501231499673888</v>
       </c>
       <c r="D12">
-        <v>6.094449795060355</v>
+        <v>4.30189682136035</v>
       </c>
       <c r="E12">
-        <v>12.61572475311184</v>
+        <v>12.0085587790064</v>
       </c>
       <c r="F12">
-        <v>3.84796288391351</v>
+        <v>3.708203995630925</v>
       </c>
       <c r="G12">
-        <v>34.97628909591887</v>
+        <v>19.1481405057499</v>
       </c>
       <c r="H12">
-        <v>3.505132432649553</v>
+        <v>4.686323335680391</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -758,22 +794,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.582331540605672</v>
+        <v>9.157329118243954</v>
       </c>
       <c r="D13">
-        <v>7.177299732538467</v>
+        <v>9.381233307829946</v>
       </c>
       <c r="E13">
-        <v>15.74793377597863</v>
+        <v>18.22989328045739</v>
       </c>
       <c r="F13">
-        <v>5.749823506835738</v>
+        <v>5.727356862307388</v>
       </c>
       <c r="G13">
-        <v>30.9035136846235</v>
+        <v>27.14564132735322</v>
       </c>
       <c r="H13">
-        <v>7.442274693571147</v>
+        <v>6.932734739571461</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -784,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.501231499673888</v>
+        <v>4.493214969499175</v>
       </c>
       <c r="D14">
-        <v>4.30189682136035</v>
+        <v>5.782572308572849</v>
       </c>
       <c r="E14">
-        <v>12.0085587790064</v>
+        <v>14.38639226567903</v>
       </c>
       <c r="F14">
-        <v>3.708203995630925</v>
+        <v>4.344405585180301</v>
       </c>
       <c r="G14">
-        <v>19.1481405057499</v>
+        <v>18.8755021854226</v>
       </c>
       <c r="H14">
-        <v>4.686323335680391</v>
+        <v>3.943986216363785</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -810,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.157329118243954</v>
+        <v>1.647760529687359</v>
       </c>
       <c r="D15">
-        <v>9.381233307829946</v>
+        <v>1.949181933575359</v>
       </c>
       <c r="E15">
-        <v>18.22989328045739</v>
+        <v>3.51468272254307</v>
       </c>
       <c r="F15">
-        <v>5.727356862307388</v>
+        <v>1.494966443161341</v>
       </c>
       <c r="G15">
-        <v>27.14564132735322</v>
+        <v>6.781979241605697</v>
       </c>
       <c r="H15">
-        <v>6.932734739571461</v>
+        <v>1.76093652087878</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.493214969499175</v>
+        <v>5.893723279057987</v>
       </c>
       <c r="D16">
-        <v>5.782572308572849</v>
+        <v>5.853355311393206</v>
       </c>
       <c r="E16">
-        <v>14.38639226567903</v>
+        <v>14.21711671751668</v>
       </c>
       <c r="F16">
-        <v>4.344405585180301</v>
+        <v>3.603285808524144</v>
       </c>
       <c r="G16">
-        <v>18.8755021854226</v>
+        <v>27.13466359213768</v>
       </c>
       <c r="H16">
-        <v>3.943986216363785</v>
+        <v>5.414092838981393</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -862,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.647760529687359</v>
+        <v>5.532360495048471</v>
       </c>
       <c r="D17">
-        <v>1.949181933575359</v>
+        <v>7.615976785391402</v>
       </c>
       <c r="E17">
-        <v>3.51468272254307</v>
+        <v>9.048679198581986</v>
       </c>
       <c r="F17">
-        <v>1.494966443161341</v>
+        <v>3.989968780477096</v>
       </c>
       <c r="G17">
-        <v>6.781979241605697</v>
+        <v>23.87629208221099</v>
       </c>
       <c r="H17">
-        <v>1.76093652087878</v>
+        <v>4.412586160496956</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -888,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.893723279057987</v>
+        <v>2.909456408844577</v>
       </c>
       <c r="D18">
-        <v>5.853355311393206</v>
+        <v>3.945362465468538</v>
       </c>
       <c r="E18">
-        <v>14.21711671751668</v>
+        <v>7.123713460209763</v>
       </c>
       <c r="F18">
-        <v>3.603285808524144</v>
+        <v>3.026967361057951</v>
       </c>
       <c r="G18">
-        <v>27.13466359213768</v>
+        <v>26.8579994351878</v>
       </c>
       <c r="H18">
-        <v>5.414092838981393</v>
+        <v>3.349276926430431</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -914,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.532360495048471</v>
+        <v>5.991831794688538</v>
       </c>
       <c r="D19">
-        <v>7.615976785391402</v>
+        <v>7.970266821236637</v>
       </c>
       <c r="E19">
-        <v>9.048679198581986</v>
+        <v>9.319394767891046</v>
       </c>
       <c r="F19">
-        <v>3.989968780477096</v>
+        <v>6.891101764989857</v>
       </c>
       <c r="G19">
-        <v>23.87629208221099</v>
+        <v>25.30740719893551</v>
       </c>
       <c r="H19">
-        <v>4.412586160496956</v>
+        <v>6.820075254709097</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -940,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.909456408844577</v>
+        <v>7.383387662025609</v>
       </c>
       <c r="D20">
-        <v>3.945362465468538</v>
+        <v>6.275879512721767</v>
       </c>
       <c r="E20">
-        <v>7.123713460209763</v>
+        <v>11.34147130898328</v>
       </c>
       <c r="F20">
-        <v>3.026967361057951</v>
+        <v>7.103998512220297</v>
       </c>
       <c r="G20">
-        <v>26.8579994351878</v>
+        <v>24.0100777257383</v>
       </c>
       <c r="H20">
-        <v>3.349276926430431</v>
+        <v>7.950296155686349</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -966,22 +1002,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.991831794688538</v>
+        <v>3.451047412708908</v>
       </c>
       <c r="D21">
-        <v>7.970266821236637</v>
+        <v>4.097053900902399</v>
       </c>
       <c r="E21">
-        <v>9.319394767891046</v>
+        <v>5.390630310969287</v>
       </c>
       <c r="F21">
-        <v>6.891101764989857</v>
+        <v>3.693228181120554</v>
       </c>
       <c r="G21">
-        <v>25.30740719893551</v>
+        <v>16.80265701485126</v>
       </c>
       <c r="H21">
-        <v>6.820075254709097</v>
+        <v>4.154806077417033</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -992,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.383387662025609</v>
+        <v>7.395767537283981</v>
       </c>
       <c r="D22">
-        <v>6.275879512721767</v>
+        <v>9.671388317986743</v>
       </c>
       <c r="E22">
-        <v>11.34147130898328</v>
+        <v>14.41876459168844</v>
       </c>
       <c r="F22">
-        <v>7.103998512220297</v>
+        <v>9.348429790215578</v>
       </c>
       <c r="G22">
-        <v>24.0100777257383</v>
+        <v>30.83282909093736</v>
       </c>
       <c r="H22">
-        <v>7.950296155686349</v>
+        <v>9.637628363419108</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1018,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.451047412708908</v>
+        <v>5.650051485638812</v>
       </c>
       <c r="D23">
-        <v>4.097053900902399</v>
+        <v>8.56244915864851</v>
       </c>
       <c r="E23">
-        <v>5.390630310969287</v>
+        <v>12.55592496545927</v>
       </c>
       <c r="F23">
-        <v>3.693228181120554</v>
+        <v>5.899771971721825</v>
       </c>
       <c r="G23">
-        <v>16.80265701485126</v>
+        <v>26.52956612665797</v>
       </c>
       <c r="H23">
-        <v>4.154806077417033</v>
+        <v>5.740205962756678</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1044,22 +1080,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.395767537283981</v>
+        <v>2.735132329790726</v>
       </c>
       <c r="D24">
-        <v>9.671388317986743</v>
+        <v>3.004237394761685</v>
       </c>
       <c r="E24">
-        <v>14.41876459168844</v>
+        <v>6.747701794212676</v>
       </c>
       <c r="F24">
-        <v>9.348429790215578</v>
+        <v>1.99557767665524</v>
       </c>
       <c r="G24">
-        <v>30.83282909093736</v>
+        <v>6.361052043543906</v>
       </c>
       <c r="H24">
-        <v>9.637628363419108</v>
+        <v>3.181453849668073</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1070,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.650051485638812</v>
+        <v>1.523788141305688</v>
       </c>
       <c r="D25">
-        <v>8.56244915864851</v>
+        <v>1.796722959273518</v>
       </c>
       <c r="E25">
-        <v>12.55592496545927</v>
+        <v>1.816071025408029</v>
       </c>
       <c r="F25">
-        <v>5.899771971721825</v>
+        <v>2.506194935990031</v>
       </c>
       <c r="G25">
-        <v>26.52956612665797</v>
+        <v>6.536821393746405</v>
       </c>
       <c r="H25">
-        <v>5.740205962756678</v>
+        <v>2.724777214249109</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1096,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2.735132329790726</v>
+        <v>2.518029389877218</v>
       </c>
       <c r="D26">
-        <v>3.004237394761685</v>
+        <v>2.950239618807134</v>
       </c>
       <c r="E26">
-        <v>6.747701794212676</v>
+        <v>3.495986895063407</v>
       </c>
       <c r="F26">
-        <v>1.99557767665524</v>
+        <v>2.654500200133778</v>
       </c>
       <c r="G26">
-        <v>6.361052043543906</v>
+        <v>9.828537968985952</v>
       </c>
       <c r="H26">
-        <v>3.181453849668073</v>
+        <v>3.008485961660829</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1122,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.523788141305688</v>
+        <v>6.034566336988929</v>
       </c>
       <c r="D27">
-        <v>1.796722959273518</v>
+        <v>7.241479604386717</v>
       </c>
       <c r="E27">
-        <v>1.816071025408029</v>
+        <v>7.91622817730928</v>
       </c>
       <c r="F27">
-        <v>2.506194935990031</v>
+        <v>6.729902325303226</v>
       </c>
       <c r="G27">
-        <v>6.536821393746405</v>
+        <v>18.16955787332409</v>
       </c>
       <c r="H27">
-        <v>2.724777214249109</v>
+        <v>7.718337742709079</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1148,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2.518029389877218</v>
+        <v>3.734339874999467</v>
       </c>
       <c r="D28">
-        <v>2.950239618807134</v>
+        <v>4.083864066488555</v>
       </c>
       <c r="E28">
-        <v>3.495986895063407</v>
+        <v>4.018431157075149</v>
       </c>
       <c r="F28">
-        <v>2.654500200133778</v>
+        <v>5.939693244618326</v>
       </c>
       <c r="G28">
-        <v>9.828537968985952</v>
+        <v>12.55036350865667</v>
       </c>
       <c r="H28">
-        <v>3.008485961660829</v>
+        <v>7.08226807873443</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1174,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6.034566336988929</v>
+        <v>2.291142344891371</v>
       </c>
       <c r="D29">
-        <v>7.241479604386717</v>
+        <v>2.760642301620881</v>
       </c>
       <c r="E29">
-        <v>7.91622817730928</v>
+        <v>2.42706517902185</v>
       </c>
       <c r="F29">
-        <v>6.729902325303226</v>
+        <v>4.919830224227843</v>
       </c>
       <c r="G29">
-        <v>18.16955787332409</v>
+        <v>11.70269861615282</v>
       </c>
       <c r="H29">
-        <v>7.718337742709079</v>
+        <v>5.364012560462514</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1200,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3.734339874999467</v>
+        <v>1.669619418362385</v>
       </c>
       <c r="D30">
-        <v>4.083864066488555</v>
+        <v>2.46338538662275</v>
       </c>
       <c r="E30">
-        <v>4.018431157075149</v>
+        <v>1.477188051683405</v>
       </c>
       <c r="F30">
-        <v>5.939693244618326</v>
+        <v>5.124712500596516</v>
       </c>
       <c r="G30">
-        <v>12.55036350865667</v>
+        <v>10.94548741283058</v>
       </c>
       <c r="H30">
-        <v>7.08226807873443</v>
+        <v>5.644287477021899</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1226,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>2.291142344891371</v>
+        <v>2.83330723834776</v>
       </c>
       <c r="D31">
-        <v>2.760642301620881</v>
+        <v>3.995266897033514</v>
       </c>
       <c r="E31">
-        <v>2.42706517902185</v>
+        <v>2.496693299567459</v>
       </c>
       <c r="F31">
-        <v>4.919830224227843</v>
+        <v>6.785595445944383</v>
       </c>
       <c r="G31">
-        <v>11.70269861615282</v>
+        <v>19.31042824551301</v>
       </c>
       <c r="H31">
-        <v>5.364012560462514</v>
+        <v>7.491087333864952</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1252,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.669619418362385</v>
+        <v>3.402792187964056</v>
       </c>
       <c r="D32">
-        <v>2.46338538662275</v>
+        <v>6.067916139376463</v>
       </c>
       <c r="E32">
-        <v>1.477188051683405</v>
+        <v>3.074915830555109</v>
       </c>
       <c r="F32">
-        <v>5.124712500596516</v>
+        <v>12.51671533007977</v>
       </c>
       <c r="G32">
-        <v>10.94548741283058</v>
+        <v>24.12527536216342</v>
       </c>
       <c r="H32">
-        <v>5.644287477021899</v>
+        <v>13.5956784611481</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1278,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2.83330723834776</v>
+        <v>2.567074246991182</v>
       </c>
       <c r="D33">
-        <v>3.995266897033514</v>
+        <v>3.57977208062576</v>
       </c>
       <c r="E33">
-        <v>2.496693299567459</v>
+        <v>2.190033542150211</v>
       </c>
       <c r="F33">
-        <v>6.785595445944383</v>
+        <v>9.076617049257536</v>
       </c>
       <c r="G33">
-        <v>19.31042824551301</v>
+        <v>15.87660269739534</v>
       </c>
       <c r="H33">
-        <v>7.491087333864952</v>
+        <v>10.11684457777571</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1304,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3.402792187964056</v>
+        <v>2.148787664717168</v>
       </c>
       <c r="D34">
-        <v>6.067916139376463</v>
+        <v>2.580027922983756</v>
       </c>
       <c r="E34">
-        <v>3.074915830555109</v>
+        <v>3.185496610136255</v>
       </c>
       <c r="F34">
-        <v>12.51671533007977</v>
+        <v>2.434386124870224</v>
       </c>
       <c r="G34">
-        <v>24.12527536216342</v>
+        <v>9.079015778821965</v>
       </c>
       <c r="H34">
-        <v>13.5956784611481</v>
+        <v>2.631475628729298</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1330,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2.567074246991182</v>
+        <v>4.637217604954347</v>
       </c>
       <c r="D35">
-        <v>3.57977208062576</v>
+        <v>5.803146602771441</v>
       </c>
       <c r="E35">
-        <v>2.190033542150211</v>
+        <v>7.071207578182765</v>
       </c>
       <c r="F35">
-        <v>9.076617049257536</v>
+        <v>7.406591400964547</v>
       </c>
       <c r="G35">
-        <v>15.87660269739534</v>
+        <v>24.3723277031812</v>
       </c>
       <c r="H35">
-        <v>10.11684457777571</v>
+        <v>7.990479669814477</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1356,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>2.148787664717168</v>
+        <v>5.288053343022602</v>
       </c>
       <c r="D36">
-        <v>2.580027922983756</v>
+        <v>6.319057453926381</v>
       </c>
       <c r="E36">
-        <v>3.185496610136255</v>
+        <v>7.658810566501649</v>
       </c>
       <c r="F36">
-        <v>2.434386124870224</v>
+        <v>5.643042991884494</v>
       </c>
       <c r="G36">
-        <v>9.079015778821965</v>
+        <v>18.63158425369335</v>
       </c>
       <c r="H36">
-        <v>2.631475628729298</v>
+        <v>6.182721223365862</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1382,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>4.637217604954347</v>
+        <v>3.15207790542181</v>
       </c>
       <c r="D37">
-        <v>5.803146602771441</v>
+        <v>3.892775063353828</v>
       </c>
       <c r="E37">
-        <v>7.071207578182765</v>
+        <v>4.810648797939424</v>
       </c>
       <c r="F37">
-        <v>7.406591400964547</v>
+        <v>3.071265290329521</v>
       </c>
       <c r="G37">
-        <v>24.3723277031812</v>
+        <v>13.45856849978736</v>
       </c>
       <c r="H37">
-        <v>7.990479669814477</v>
+        <v>3.276769552948213</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1408,73 +1444,21 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>5.288053343022602</v>
+        <v>4.874199858277068</v>
       </c>
       <c r="D38">
-        <v>6.319057453926381</v>
+        <v>5.074167031949974</v>
       </c>
       <c r="E38">
-        <v>7.658810566501649</v>
+        <v>5.877005874314942</v>
       </c>
       <c r="F38">
-        <v>5.643042991884494</v>
+        <v>5.52169707785304</v>
       </c>
       <c r="G38">
-        <v>18.63158425369335</v>
+        <v>18.79583882640201</v>
       </c>
       <c r="H38">
-        <v>6.182721223365862</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>3.15207790542181</v>
-      </c>
-      <c r="D39">
-        <v>3.892775063353828</v>
-      </c>
-      <c r="E39">
-        <v>4.810648797939424</v>
-      </c>
-      <c r="F39">
-        <v>3.071265290329521</v>
-      </c>
-      <c r="G39">
-        <v>13.45856849978736</v>
-      </c>
-      <c r="H39">
-        <v>3.276769552948213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>4.874199858277068</v>
-      </c>
-      <c r="D40">
-        <v>5.074167031949974</v>
-      </c>
-      <c r="E40">
-        <v>5.877005874314942</v>
-      </c>
-      <c r="F40">
-        <v>5.52169707785304</v>
-      </c>
-      <c r="G40">
-        <v>18.79583882640201</v>
-      </c>
-      <c r="H40">
         <v>6.309417569875314</v>
       </c>
     </row>
